--- a/data/evaluation/evaluation_Center_Summer_Onions.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Onions.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3433.929134778854</v>
+        <v>3343.694085147381</v>
       </c>
       <c r="C4" t="n">
-        <v>23462358.04383404</v>
+        <v>22098511.42943508</v>
       </c>
       <c r="D4" t="n">
-        <v>4843.795830114441</v>
+        <v>4700.90538401222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4555748285414098</v>
+        <v>0.4872217936716905</v>
       </c>
     </row>
     <row r="5">
